--- a/latex/minor_corrections.xlsx
+++ b/latex/minor_corrections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dem44/Documents/Thesis/PhD-Thesis/latex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3988024E-3B0C-5E4E-80BA-229B280A1DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E59B9-D7E3-9C40-B4CA-DEB68E43853C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14340" xr2:uid="{268BC22D-2019-C24D-BA81-ECE9170248DF}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{268BC22D-2019-C24D-BA81-ECE9170248DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Correction</t>
   </si>
@@ -34,14 +34,57 @@
   </si>
   <si>
     <t>Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This work has been published in the journal </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genome Biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (updated reference)</t>
+    </r>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The references now include author and year and have been order alphabetically at the end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -385,9 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C35D7-79FE-3043-8279-261DA3E8AD91}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -407,6 +452,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/latex/minor_corrections.xlsx
+++ b/latex/minor_corrections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dem44/Documents/Thesis/PhD-Thesis/latex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E59B9-D7E3-9C40-B4CA-DEB68E43853C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98782DF3-EE5A-6040-8A76-8765530B8118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{268BC22D-2019-C24D-BA81-ECE9170248DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Correction</t>
   </si>
@@ -69,13 +69,502 @@
   </si>
   <si>
     <t>The references now include author and year and have been order alphabetically at the end</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[...] and Polycomb Repressive Complex 2) also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the ability [...]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[...] with consortia such as ENCODE \citep{Consortium2012}, Roadmap Epigenomics \citep{Consortium2015}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, BLUEPRINT or \acrshort{IHEC} \citep{Stunnenberg2016}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and created [...]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[...] biological problems </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that remains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be solved.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A third de novo DNA methyltransferase that is catalytically inactive, DNMT3L, has also been identified in mammals. DNMT3L is a DNMT3 variant that lacks the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N-terminal part of the regulatory domain and the C-terminal part of the catalytic domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \citep{Lyko2017}. DNMT3L cooperates mainly with DNMT3A to add 5mC in maternal genomic imprints during gametogenesis \citep{Bourchis2001,Tomida2018}. Additionally,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DNMT3C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was recently discovered as a de novo DNA methyltranferase in rodents, where it is responsible for methylating and silencing young retrotransposons in the male germline, which is required for mouse fertility \citep{Barau2016}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[...] they have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stochastic component, the genomic context [...]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hypermethylated regions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during ageing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[...] Interestingly, bivalent domain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>losses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occur in cancer cells [...]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hypomethylated regions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>during ageing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DNA methylation patterns in enhancers are likely regulated by the balance between </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de novo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DNA methyltranferases and TET enzymes. For example, in human epidermal stem cells, DNMT3A and DNMT3B associate with the most active enhancers in a H3K36me3-dependent way and, together with TET2, regulate enhancer DNA methylation levels and function \citep{Rinaldi2016}. Furthermore, loss of DNMT3A drives enhancer hypomethylation in both mouse and human leukaemia models \citep{Yang2016b}. Conversely, deletion of TET2 causes extensive loss of 5hmC at enhancers in mouse \acrshort{ESCs}, which is accompanied by enhancer hypermethylation \citep{Hon2014}. Therefore, the enhancer-specific hypomethylation observed during ageing could be a consequence of changes in the expression or activity levels of DNA methyltransferases and TET enzymes with age, which have been reported both in mice and humans \citep{Armstrong2013,Ciccarone2016,Gontier2018,Truong2015}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In order to study any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phenomenon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> one needs to [...]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Change multi-tissue mouse clock to Thompson et al. 2018 </t>
+  </si>
+  <si>
+    <t>A total of 13 samples (0.56%) did not satisfy this criterion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A total of 95 samples (4.09%) did not satisfy this criterion. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[...] the EAA seems to increase with age in the case of Sotos patients (Fig.~\ref{fig:c3_fig4}b; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-values for the slope coefficient of the EAA$\sim$Age linear regression: p-value$_{\text{with CCC}}$ = 0.00569, p-value$_{\text{without CCC}}$ = 0.00514</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).This could imply that at least some of the changes that normally affect the epigenome with age are [...]</t>
+    </r>
+  </si>
+  <si>
+    <t>Figure 4.2a is now larger</t>
+  </si>
+  <si>
+    <t>Moreover, many complex diseases, such as rheumatoid arthritis or many cancer types, are characterised by altered DNA methylation patterns (although these DNA methylation changes are more robust and more abundant in most cancers when compared with rheumatoid arthritis). This suggests that epigenetic mechanisms integrate genetic and environmental aetiologies of disease \citep{Liu2013,Widschwendter2018}. Nevertheless, it is important to mention that many environmental factors have an impact in the biology of the organism through non-epigenetic mechanisms. For example, exposure to certain environmental factors, such as UV light or polycyclic aromatic hydrocarbons (\acrshort{PAHs}), can lead to specific DNA mutational signatures and increase the risk of developing certain types of human cancer \citep{Kucab2019}. Furthermore, many environmental adaptations, such as those that regulate responses to temperature and light \citep{Narasimamurthy2017} or nutrient availability (see section~\ref{s:1.1.2}), rely on non-epigenetic molecular mechanisms.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Epigenetic clocks have emerged in the last few years as the most accurate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>molecular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> biomarkers of the ageing process in humans [...]</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove the following text: (positive EAA is generally found in cancerous tissues)[refs]</t>
+  </si>
+  <si>
+    <t>Rewrite section 2.3.2. to accommodate Andrew's comments</t>
+  </si>
+  <si>
+    <r>
+      <t>[...] which could explain the higher cancer predisposition</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g. to acute leukemia, sacrococcygeal teratoma, neuroblastoma, ...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reported in these patients and might relate to their overgrowth \citep{Leventopoulos2009}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the contrary, DMPs in Sotos were clearly dominated by CpGs that have lower methylation levels in individuals with the syndrome (i.e. hypomethylated, 99.27\%, barplot in Fig.~\ref{fig:c3_fig5}a). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is highly consistent with the results from a previous report, where 99.3% of the Sotos DMPs identified (in this case applying a filter of &gt;20% difference in average DNA methylation levels) were hypomethylated in Sotos patients \citep{Choufani2015}. It is important to point out that Sotos syndrome patients and healthy control samples were matched for age and sex in both differential analyses. Furthermore, in my analysis I included age and sex as covariates in the linear model (see equation~\ref{eq:3.1}), which minimises the chances that Sotos DMPs could also constitute ageing DMPs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thus, it is possible that alterations in the DNA methylation oscillatory behaviour, caused by changes in the activities or the binding of DNMT3s and TETs (which could happen if the H3K36 methylation landscape is altered), are a feature of the epigenetic ageing clock. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moreover, cytosines that change their methylation status following circadian rhythms have been identified both in mice \citep{Oh2018} and humans \citep{Oh2019}. Importantly, these cytosines seem to significantly overlap with ageing \acrshort{DMPs}, with the amplitude of the circadian oscillations correlating with the magnitude of epigenetic ageing effects. Intriguingly, oscillatory cytosines were highly enriched in neutrophil-specific enhancers \citep{Oh2019}. Therefore, further studies should explore the relationship between the disruption of circadian rhythms during ageing and its association with the methylome and the epigenetic ageing clock.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is important to keep in mind that 5hmC is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[… remove some slightly inaccurate text ...]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confounded with the 5mC signal \citep{Wu2017}</t>
+    </r>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The stability is further demonstrated by experiments showing that human fibroblasts that have been reprogrammed into neurons maintain their original epigenetic age \citep{Huh2016}. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moreover, aneuploid mice carrying a complete copy of human chromosome 21 accumulate DNA methylation changes during ageing far more rapidly than seen in human tissues, which suggests that the epigenetic ageing clock is a molecular readout of the ageing cellular milieu \citep{Lowe2018}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The methylation status of a given </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cytosine (normally found in a CpG site)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in one of the array probes can be quantified using the $\beta$-value statistic, which is calculated as \citep{Wilhelm-Benartzi2013,Du2010}:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The $\beta$-values for a given sample (i.e. considering all the cytosines measured </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[… removed text ...]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) usually follow a bimodal distribution, where the two peaks are centred around 0 and 1 (Fig.~\ref{fig:c2_fig2}d). </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +574,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,8 +609,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,48 +937,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C35D7-79FE-3043-8279-261DA3E8AD91}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B24">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>129</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/latex/minor_corrections.xlsx
+++ b/latex/minor_corrections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dem44/Documents/Thesis/PhD-Thesis/latex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98782DF3-EE5A-6040-8A76-8765530B8118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7BF01-D3CC-3B45-BFAE-EE13204117B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14320" xr2:uid="{268BC22D-2019-C24D-BA81-ECE9170248DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Correction</t>
   </si>
@@ -68,9 +68,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>The references now include author and year and have been order alphabetically at the end</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[...] and Polycomb Repressive Complex 2) also </t>
     </r>
@@ -558,6 +555,12 @@
       </rPr>
       <t xml:space="preserve">) usually follow a bimodal distribution, where the two peaks are centred around 0 and 1 (Fig.~\ref{fig:c2_fig2}d). </t>
     </r>
+  </si>
+  <si>
+    <t>The references now include author and year and are ordered alphabetically at the end</t>
+  </si>
+  <si>
+    <t>71-73</t>
   </si>
 </sst>
 </file>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C35D7-79FE-3043-8279-261DA3E8AD91}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -980,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -991,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1002,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -1013,7 +1016,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1024,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -1035,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1046,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1057,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1065,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1079,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -1090,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1101,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1112,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1123,7 +1126,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1131,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1145,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1156,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1167,7 +1170,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1178,7 +1181,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1189,18 +1192,18 @@
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
-        <v>73</v>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1222,7 +1225,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1233,7 +1236,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -1244,7 +1247,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1255,7 +1258,7 @@
         <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -1266,7 +1269,7 @@
         <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
